--- a/tensorflow/experiment/TrainingComparison.xlsx
+++ b/tensorflow/experiment/TrainingComparison.xlsx
@@ -5,25 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA33BA3-69AB-4D0D-B64A-9DE7DC305ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65844E33-669C-4CFD-B8BD-9F2A0BF43006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21240" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -103,6 +103,16 @@
     <t>Adjust y according to the random crop
 Grayscale
 Resize after augmentation</t>
+  </si>
+  <si>
+    <t>VGG19
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</t>
+  </si>
+  <si>
+    <t>Learning rate</t>
   </si>
 </sst>
 </file>
@@ -144,7 +154,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -203,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -224,6 +234,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -239,16 +261,19 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -469,30 +494,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -507,59 +532,65 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G2" s="4">
         <v>60</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>6.3E-3</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -568,60 +599,66 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G3" s="4">
         <v>60</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>7.1673000000000003E-5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>1.01E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>2.0048E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G4" s="4">
         <v>60</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>1.09E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>1.8165999999999999E-4</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>1.04E-2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>2.0639000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -630,30 +667,33 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G5" s="4">
         <v>60</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>2.4806999999999997E-4</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>1.17E-2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>2.496E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -662,400 +702,452 @@
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G6" s="4">
         <v>60</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>1.32E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>2.8566000000000003E-4</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>5.6784999999999995E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" s="19">
         <v>60</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="20">
         <v>6.3E-3</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="17">
         <v>5.7337999999999999E-5</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="17">
         <v>1.1176E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G8" s="4">
         <v>60</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>7.8879000000000002E-5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1.8269E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G9" s="4">
         <v>60</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>1.0278E-4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>1.7820999999999999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="G10" s="14">
+        <v>60</v>
+      </c>
+      <c r="H10" s="15">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="I10" s="12">
+        <v>3.8435E-5</v>
+      </c>
+      <c r="J10" s="16">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="K10" s="12">
+        <v>3.8670000000000001E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="7"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tensorflow/experiment/TrainingComparison.xlsx
+++ b/tensorflow/experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65844E33-669C-4CFD-B8BD-9F2A0BF43006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B87AC34-EE83-4E0D-BDE1-85CCDEFFBBE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="705" windowWidth="20430" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Model</t>
   </si>
@@ -113,6 +113,30 @@
   </si>
   <si>
     <t>Learning rate</t>
+  </si>
+  <si>
+    <t>Xception
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</t>
+  </si>
+  <si>
+    <t>InceptionV3
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</t>
+  </si>
+  <si>
+    <t>ResNet50V2
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</t>
+  </si>
+  <si>
+    <t>OOM</t>
   </si>
 </sst>
 </file>
@@ -497,10 +521,10 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -861,61 +885,121 @@
         <v>3.8670000000000001E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="G11" s="19">
+        <v>60</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.1314999999999998E-5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.192E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>60</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="7"/>
+      <c r="B13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="G13" s="19">
+        <v>60</v>
+      </c>
+      <c r="H13" s="10">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6.7424999999999999E-5</v>
+      </c>
+      <c r="J13" s="11">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1.5302999999999999E-4</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="10"/>
       <c r="I14" s="7"/>
       <c r="J14" s="11"/>

--- a/tensorflow/experiment/TrainingComparison.xlsx
+++ b/tensorflow/experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B87AC34-EE83-4E0D-BDE1-85CCDEFFBBE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C2A380-E90E-4372-8A3C-6E53F6C50662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="705" windowWidth="20430" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="5430" windowWidth="20430" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Model</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>OOM</t>
+  </si>
+  <si>
+    <t>Dense(64, relu)
++ Dropout
++ Dense(64, relu)
++ GlobalAveragePooling2D</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -990,20 +996,40 @@
         <v>1.5302999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="7"/>
+      <c r="B14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="G14" s="19">
+        <v>60</v>
+      </c>
+      <c r="H14" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="J14" s="11">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>3.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">

--- a/tensorflow/experiment/TrainingComparison.xlsx
+++ b/tensorflow/experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C2A380-E90E-4372-8A3C-6E53F6C50662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86467A71-250E-410D-92E0-D59EE455A53D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="5430" windowWidth="20430" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,6 +321,1094 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2351-46E2-A307-E38CC3041BD8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$2:$B$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$2:$B$11,Sheet1!$B$13:$B$14)</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>MobileNetV2
++ Dense(512, relu, regularizer)
++ Dense(512, relu, regularizer)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MobileNetV2
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MobileNetV2
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MobileNetV2
++ Dense(512, relu)
++ Dropout
++ Dense(512, relu)
++ Dropout</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MobileNetV2
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MobileNetV2
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MobileNetV2
++ Dense(1024, relu, regularizer)
++ Dropout
++ Dense(1024, relu, regularizer)
++ Dropout</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MobileNetV2
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VGG19
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ResNet50V2
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>InceptionV3
++ Dense(512, relu, regularizer)
++ Dropout
++ Dense(512, relu, regularizer)
++ Dropout</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dense(64, relu)
++ Dropout
++ Dense(64, relu)
++ GlobalAveragePooling2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$J$2:$J$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$J$2:$J$11,Sheet1!$J$13:$J$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6800000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2351-46E2-A307-E38CC3041BD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="490116800"/>
+        <c:axId val="563915016"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="490116800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563915016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="563915016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490116800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1209676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43197B26-4B50-4954-AC62-3E5CE4C40283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,13 +1612,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1031,233 +2119,9 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="7"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:K6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>